--- a/FASE 3/Evidencias grupales/PLANILLA DE EVALUACIÓN FASE 3 - PRESENTACION FINAL.xlsx
+++ b/FASE 3/Evidencias grupales/PLANILLA DE EVALUACIÓN FASE 3 - PRESENTACION FINAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://duoccl0-my.sharepoint.com/personal/ge_galan_profesor_duoc_cl/Documents/2024-2/Clases/CAPSTONE/DOCUMENTOS FASE3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PARA CORREGIR (2-2025)\CAPSTONE\SEC 1\grupo 6 (Fuentes Felipe)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="777" documentId="8_{2EFDF332-31E9-4C74-A6B5-E695634C1C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DA9E333-109C-40E4-9CB6-8C2D20BED8EE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F25C87-3CFA-496E-8371-C7194D50169F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EVALUACION FASE 3" sheetId="1" r:id="rId1"/>
@@ -57,16 +57,17 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="64">
   <si>
     <t>INTEGRANTES</t>
   </si>
@@ -78,15 +79,6 @@
   </si>
   <si>
     <t>Nota final</t>
-  </si>
-  <si>
-    <t>ESTUDIANTE 1</t>
-  </si>
-  <si>
-    <t>ESTUDIANTE 2</t>
-  </si>
-  <si>
-    <t>ESTUDIANTE 3</t>
   </si>
   <si>
     <t>DOCENTE</t>
@@ -289,6 +281,9 @@
   </si>
   <si>
     <t>Muy Relevante</t>
+  </si>
+  <si>
+    <t>FELIPE FUENTES</t>
   </si>
 </sst>
 </file>
@@ -830,19 +825,27 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -869,15 +872,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,7 +908,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1211,11 +1206,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K797"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="66.85546875" customWidth="1"/>
@@ -1229,7 +1224,7 @@
     <col min="12" max="24" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="14.45">
+    <row r="2" spans="1:11">
       <c r="C2" s="29">
         <v>0.7</v>
       </c>
@@ -1240,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45">
+    <row r="3" spans="1:11" ht="30">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1254,12 +1249,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45">
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="C4" s="31">
         <f>C21</f>
@@ -1274,102 +1269,80 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45">
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="31">
-        <f>C34</f>
-        <v>7</v>
-      </c>
-      <c r="D5" s="37">
-        <f>C73</f>
-        <v>7</v>
-      </c>
-      <c r="E5" s="36">
-        <f t="shared" ref="E5:E6" si="0">C5*C$2+D5*D$2</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.45">
+      <c r="B5" s="16"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="31">
-        <f>C47</f>
-        <v>7</v>
-      </c>
-      <c r="D6" s="37">
-        <f>C86</f>
-        <v>7</v>
-      </c>
-      <c r="E6" s="36">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="18" outlineLevel="1">
-      <c r="A11" s="38" t="s">
-        <v>7</v>
+      <c r="B6" s="16"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.75" outlineLevel="1">
+      <c r="A11" s="48" t="s">
+        <v>4</v>
       </c>
       <c r="B11" s="11" t="str">
         <f>B4</f>
-        <v>ESTUDIANTE 1</v>
-      </c>
-      <c r="C11" s="39" t="s">
+        <v>FELIPE FUENTES</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="46"/>
+    </row>
+    <row r="12" spans="1:11" outlineLevel="1">
+      <c r="A12" s="40"/>
+      <c r="B12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="E12" s="46"/>
+      <c r="F12" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="52"/>
-    </row>
-    <row r="12" spans="1:11" ht="14.45" outlineLevel="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="15" t="s">
+      <c r="G12" s="46"/>
+      <c r="H12" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="40" t="s">
+      <c r="I12" s="46"/>
+      <c r="J12" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="52"/>
+      <c r="K12" s="46"/>
     </row>
     <row r="13" spans="1:11" ht="24" outlineLevel="1">
-      <c r="A13" s="55"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="19" t="str">
         <f>RUBRICA!A4</f>
         <v xml:space="preserve">1. Presenta el proyecto considerando la relevancia, objetivos, metodología y desarrollo, de acuerdo a los estándares de calidad de la disciplina. </v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D13" s="12" t="str">
-        <f t="shared" ref="D13:D17" si="1">IF($C13=CL,"X","")</f>
+        <f t="shared" ref="D13:D17" si="0">IF($C13=CL,"X","")</f>
         <v>X</v>
       </c>
       <c r="E13" s="12">
@@ -1377,7 +1350,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="12" t="str">
-        <f t="shared" ref="F13:F17" si="2">IF($C13=L,"X","")</f>
+        <f t="shared" ref="F13:F17" si="1">IF($C13=L,"X","")</f>
         <v/>
       </c>
       <c r="G13" s="12" t="str">
@@ -1385,7 +1358,7 @@
         <v/>
       </c>
       <c r="H13" s="12" t="str">
-        <f t="shared" ref="H13:H17" si="3">IF($C13=ML,"X","")</f>
+        <f t="shared" ref="H13:H17" si="2">IF($C13=ML,"X","")</f>
         <v/>
       </c>
       <c r="I13" s="12" t="str">
@@ -1393,25 +1366,25 @@
         <v/>
       </c>
       <c r="J13" s="12" t="str">
-        <f t="shared" ref="J13:J17" si="4">IF($C13=NL,"X","")</f>
+        <f t="shared" ref="J13:J17" si="3">IF($C13=NL,"X","")</f>
         <v/>
       </c>
       <c r="K13" s="12" t="str">
-        <f t="shared" ref="K13:K17" si="5">IF($J13="X",0,"")</f>
+        <f t="shared" ref="K13:K17" si="4">IF($J13="X",0,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:11" ht="26.45" customHeight="1" outlineLevel="1">
-      <c r="A14" s="55"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="19" t="str">
         <f>RUBRICA!A5</f>
         <v xml:space="preserve">2. Presenta las evidencias del Proyecto APT, dando cuenta del cumplimiento de los objetivos y de acuerdo a los estándares de la disciplina. </v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D14" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="E14" s="12">
@@ -1419,7 +1392,7 @@
         <v>25</v>
       </c>
       <c r="F14" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G14" s="12" t="str">
@@ -1427,7 +1400,7 @@
         <v/>
       </c>
       <c r="H14" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I14" s="12" t="str">
@@ -1435,25 +1408,25 @@
         <v/>
       </c>
       <c r="J14" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K14" s="12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
     </row>
     <row r="15" spans="1:11" ht="24" outlineLevel="1">
-      <c r="A15" s="55"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="19" t="str">
         <f>RUBRICA!A6</f>
         <v>3. Responde las preguntas realizadas por la comisión, cumpliendo con los estándares de calidad de la disciplina.</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D15" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="E15" s="12">
@@ -1461,7 +1434,7 @@
         <v>20</v>
       </c>
       <c r="F15" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G15" s="12" t="str">
@@ -1469,7 +1442,7 @@
         <v/>
       </c>
       <c r="H15" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I15" s="12" t="str">
@@ -1477,25 +1450,25 @@
         <v/>
       </c>
       <c r="J15" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K15" s="12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K15" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
     </row>
     <row r="16" spans="1:11" ht="24" outlineLevel="1">
-      <c r="A16" s="55"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="19" t="str">
         <f>RUBRICA!A7</f>
         <v>4. Expone el Proyecto APT, considerando el formato y el tiempo establecido para la presentación.</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D16" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="E16" s="12">
@@ -1503,7 +1476,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G16" s="12" t="str">
@@ -1511,7 +1484,7 @@
         <v/>
       </c>
       <c r="H16" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I16" s="12" t="str">
@@ -1519,25 +1492,25 @@
         <v/>
       </c>
       <c r="J16" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K16" s="12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K16" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
     </row>
     <row r="17" spans="1:11" ht="24" outlineLevel="1">
-      <c r="A17" s="55"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="19" t="str">
         <f>RUBRICA!A8</f>
         <v>5. Expresa sus ideas con fluidez, claridad y precisión, utilizando lenguaje técnico propio de la disciplina.</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D17" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
       <c r="E17" s="12">
@@ -1545,7 +1518,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G17" s="12" t="str">
@@ -1553,7 +1526,7 @@
         <v/>
       </c>
       <c r="H17" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I17" s="12" t="str">
@@ -1561,22 +1534,22 @@
         <v/>
       </c>
       <c r="J17" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K17" s="12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K17" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="24" outlineLevel="1">
-      <c r="A18" s="55"/>
+    </row>
+    <row r="18" spans="1:11" ht="36" outlineLevel="1">
+      <c r="A18" s="41"/>
       <c r="B18" s="19" t="str">
         <f>RUBRICA!A9</f>
         <v>6. Entrega la documentación y evidencias requerida por la asignatura de acuerdo a la estructura y nombres solicitados, guardando todas las evidencias de avances en Git</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D18" s="12" t="str">
         <f>IF($C18=CL,"X","")</f>
@@ -1607,18 +1580,18 @@
         <v/>
       </c>
       <c r="K18" s="12" t="str">
-        <f t="shared" ref="K18:K19" si="6">IF($J18="X",0,"")</f>
+        <f t="shared" ref="K18:K19" si="5">IF($J18="X",0,"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:11" ht="24" outlineLevel="1">
-      <c r="A19" s="55"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="19" t="str">
         <f>RUBRICA!A10</f>
         <v xml:space="preserve">7. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. </v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D19" s="12" t="str">
         <f>IF($C19=CL,"X","")</f>
@@ -1649,14 +1622,14 @@
         <v/>
       </c>
       <c r="K19" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1">
-      <c r="A20" s="53"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C20" s="22">
         <f>E20+G20+I20+K20</f>
@@ -1684,9 +1657,9 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1">
-      <c r="A21" s="54"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C21" s="14">
         <f>VLOOKUP(C20,ESCALA_IEP!A2:B202,2,FALSE)</f>
@@ -1696,61 +1669,61 @@
     <row r="22" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="23" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="24" spans="1:11" ht="24" customHeight="1">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="11">
+        <f>B5</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="46"/>
+    </row>
+    <row r="25" spans="1:11" ht="24" customHeight="1">
+      <c r="A25" s="40"/>
+      <c r="B25" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="11" t="str">
-        <f>B5</f>
-        <v>ESTUDIANTE 2</v>
-      </c>
-      <c r="C24" s="39" t="s">
+      <c r="C25" s="42"/>
+      <c r="D25" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="E25" s="46"/>
+      <c r="F25" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="52"/>
-    </row>
-    <row r="25" spans="1:11" ht="24" customHeight="1">
-      <c r="A25" s="53"/>
-      <c r="B25" s="15" t="s">
+      <c r="G25" s="46"/>
+      <c r="H25" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="40" t="s">
+      <c r="I25" s="46"/>
+      <c r="J25" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="52"/>
-      <c r="J25" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="52"/>
+      <c r="K25" s="46"/>
     </row>
     <row r="26" spans="1:11" ht="24" customHeight="1">
-      <c r="A26" s="55"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="19" t="str">
         <f>RUBRICA!A4</f>
         <v xml:space="preserve">1. Presenta el proyecto considerando la relevancia, objetivos, metodología y desarrollo, de acuerdo a los estándares de calidad de la disciplina. </v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D26" s="12" t="str">
-        <f t="shared" ref="D26:D30" si="7">IF($C26=CL,"X","")</f>
+        <f t="shared" ref="D26:D30" si="6">IF($C26=CL,"X","")</f>
         <v>X</v>
       </c>
       <c r="E26" s="12">
@@ -1758,7 +1731,7 @@
         <v>15</v>
       </c>
       <c r="F26" s="12" t="str">
-        <f t="shared" ref="F26:F30" si="8">IF($C26=L,"X","")</f>
+        <f t="shared" ref="F26:F30" si="7">IF($C26=L,"X","")</f>
         <v/>
       </c>
       <c r="G26" s="12" t="str">
@@ -1766,7 +1739,7 @@
         <v/>
       </c>
       <c r="H26" s="12" t="str">
-        <f t="shared" ref="H26:H30" si="9">IF($C26=ML,"X","")</f>
+        <f t="shared" ref="H26:H30" si="8">IF($C26=ML,"X","")</f>
         <v/>
       </c>
       <c r="I26" s="12" t="str">
@@ -1774,25 +1747,25 @@
         <v/>
       </c>
       <c r="J26" s="12" t="str">
-        <f t="shared" ref="J26:J30" si="10">IF($C26=NL,"X","")</f>
+        <f t="shared" ref="J26:J30" si="9">IF($C26=NL,"X","")</f>
         <v/>
       </c>
       <c r="K26" s="12" t="str">
-        <f t="shared" ref="K26:K32" si="11">IF($J26="X",0,"")</f>
+        <f t="shared" ref="K26:K32" si="10">IF($J26="X",0,"")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:11" ht="24" customHeight="1">
-      <c r="A27" s="55"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="19" t="str">
         <f>RUBRICA!A5</f>
         <v xml:space="preserve">2. Presenta las evidencias del Proyecto APT, dando cuenta del cumplimiento de los objetivos y de acuerdo a los estándares de la disciplina. </v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D27" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>X</v>
       </c>
       <c r="E27" s="12">
@@ -1800,7 +1773,7 @@
         <v>25</v>
       </c>
       <c r="F27" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G27" s="12" t="str">
@@ -1808,7 +1781,7 @@
         <v/>
       </c>
       <c r="H27" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I27" s="12" t="str">
@@ -1816,25 +1789,25 @@
         <v/>
       </c>
       <c r="J27" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K27" s="12" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K27" s="12" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
     </row>
     <row r="28" spans="1:11" ht="24" customHeight="1">
-      <c r="A28" s="55"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="19" t="str">
         <f>RUBRICA!A6</f>
         <v>3. Responde las preguntas realizadas por la comisión, cumpliendo con los estándares de calidad de la disciplina.</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D28" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>X</v>
       </c>
       <c r="E28" s="12">
@@ -1842,7 +1815,7 @@
         <v>20</v>
       </c>
       <c r="F28" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G28" s="12" t="str">
@@ -1850,7 +1823,7 @@
         <v/>
       </c>
       <c r="H28" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I28" s="12" t="str">
@@ -1858,25 +1831,25 @@
         <v/>
       </c>
       <c r="J28" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K28" s="12" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K28" s="12" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
     </row>
     <row r="29" spans="1:11" ht="24" customHeight="1">
-      <c r="A29" s="55"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="19" t="str">
         <f>RUBRICA!A7</f>
         <v>4. Expone el Proyecto APT, considerando el formato y el tiempo establecido para la presentación.</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D29" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>X</v>
       </c>
       <c r="E29" s="12">
@@ -1884,7 +1857,7 @@
         <v>5</v>
       </c>
       <c r="F29" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G29" s="12" t="str">
@@ -1892,7 +1865,7 @@
         <v/>
       </c>
       <c r="H29" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I29" s="12" t="str">
@@ -1900,25 +1873,25 @@
         <v/>
       </c>
       <c r="J29" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K29" s="12" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K29" s="12" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
     </row>
     <row r="30" spans="1:11" ht="24" customHeight="1">
-      <c r="A30" s="55"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="19" t="str">
         <f>RUBRICA!A8</f>
         <v>5. Expresa sus ideas con fluidez, claridad y precisión, utilizando lenguaje técnico propio de la disciplina.</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D30" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>X</v>
       </c>
       <c r="E30" s="12">
@@ -1926,7 +1899,7 @@
         <v>5</v>
       </c>
       <c r="F30" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G30" s="12" t="str">
@@ -1934,7 +1907,7 @@
         <v/>
       </c>
       <c r="H30" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I30" s="12" t="str">
@@ -1942,22 +1915,22 @@
         <v/>
       </c>
       <c r="J30" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K30" s="12" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K30" s="12" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
     </row>
     <row r="31" spans="1:11" ht="24" customHeight="1">
-      <c r="A31" s="55"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="19" t="str">
         <f>RUBRICA!A9</f>
         <v>6. Entrega la documentación y evidencias requerida por la asignatura de acuerdo a la estructura y nombres solicitados, guardando todas las evidencias de avances en Git</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D31" s="12" t="str">
         <f>IF($C31=CL,"X","")</f>
@@ -1988,18 +1961,18 @@
         <v/>
       </c>
       <c r="K31" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:11" ht="24" customHeight="1">
-      <c r="A32" s="55"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="19" t="str">
         <f>RUBRICA!A10</f>
         <v xml:space="preserve">7. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. </v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D32" s="12" t="str">
         <f>IF($C32=CL,"X","")</f>
@@ -2030,14 +2003,14 @@
         <v/>
       </c>
       <c r="K32" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:11" ht="24" customHeight="1">
-      <c r="A33" s="53"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C33" s="22">
         <f>E33+G33+I33+K33</f>
@@ -2065,9 +2038,9 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="24" customHeight="1">
-      <c r="A34" s="54"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C34" s="14">
         <f>VLOOKUP(C33,ESCALA_IEP!A15:B215,2,FALSE)</f>
@@ -2077,61 +2050,61 @@
     <row r="35" spans="1:11" ht="16.149999999999999" customHeight="1"/>
     <row r="36" spans="1:11" ht="13.9" customHeight="1"/>
     <row r="37" spans="1:11" ht="24" customHeight="1">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="11">
+        <f>B6</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="46"/>
+    </row>
+    <row r="38" spans="1:11" ht="24" customHeight="1">
+      <c r="A38" s="40"/>
+      <c r="B38" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="11" t="str">
-        <f>B6</f>
-        <v>ESTUDIANTE 3</v>
-      </c>
-      <c r="C37" s="39" t="s">
+      <c r="C38" s="42"/>
+      <c r="D38" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="E38" s="46"/>
+      <c r="F38" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="52"/>
-    </row>
-    <row r="38" spans="1:11" ht="24" customHeight="1">
-      <c r="A38" s="53"/>
-      <c r="B38" s="15" t="s">
+      <c r="G38" s="46"/>
+      <c r="H38" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="40" t="s">
+      <c r="I38" s="46"/>
+      <c r="J38" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="52"/>
-      <c r="F38" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="52"/>
-      <c r="H38" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="52"/>
-      <c r="J38" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="52"/>
+      <c r="K38" s="46"/>
     </row>
     <row r="39" spans="1:11" ht="24" customHeight="1">
-      <c r="A39" s="55"/>
+      <c r="A39" s="41"/>
       <c r="B39" s="19" t="str">
         <f>RUBRICA!A4</f>
         <v xml:space="preserve">1. Presenta el proyecto considerando la relevancia, objetivos, metodología y desarrollo, de acuerdo a los estándares de calidad de la disciplina. </v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D39" s="12" t="str">
-        <f t="shared" ref="D39:D43" si="12">IF($C39=CL,"X","")</f>
+        <f t="shared" ref="D39:D43" si="11">IF($C39=CL,"X","")</f>
         <v>X</v>
       </c>
       <c r="E39" s="12">
@@ -2139,7 +2112,7 @@
         <v>15</v>
       </c>
       <c r="F39" s="12" t="str">
-        <f t="shared" ref="F39:F43" si="13">IF($C39=L,"X","")</f>
+        <f t="shared" ref="F39:F43" si="12">IF($C39=L,"X","")</f>
         <v/>
       </c>
       <c r="G39" s="12" t="str">
@@ -2147,7 +2120,7 @@
         <v/>
       </c>
       <c r="H39" s="12" t="str">
-        <f t="shared" ref="H39:H43" si="14">IF($C39=ML,"X","")</f>
+        <f t="shared" ref="H39:H43" si="13">IF($C39=ML,"X","")</f>
         <v/>
       </c>
       <c r="I39" s="12" t="str">
@@ -2155,25 +2128,25 @@
         <v/>
       </c>
       <c r="J39" s="12" t="str">
-        <f t="shared" ref="J39:J43" si="15">IF($C39=NL,"X","")</f>
+        <f t="shared" ref="J39:J43" si="14">IF($C39=NL,"X","")</f>
         <v/>
       </c>
       <c r="K39" s="12" t="str">
-        <f t="shared" ref="K39:K45" si="16">IF($J39="X",0,"")</f>
+        <f t="shared" ref="K39:K45" si="15">IF($J39="X",0,"")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:11" ht="24" customHeight="1">
-      <c r="A40" s="55"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="19" t="str">
         <f>RUBRICA!A5</f>
         <v xml:space="preserve">2. Presenta las evidencias del Proyecto APT, dando cuenta del cumplimiento de los objetivos y de acuerdo a los estándares de la disciplina. </v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D40" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>X</v>
       </c>
       <c r="E40" s="12">
@@ -2181,7 +2154,7 @@
         <v>25</v>
       </c>
       <c r="F40" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G40" s="12" t="str">
@@ -2189,7 +2162,7 @@
         <v/>
       </c>
       <c r="H40" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I40" s="12" t="str">
@@ -2197,25 +2170,25 @@
         <v/>
       </c>
       <c r="J40" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="K40" s="12" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K40" s="12" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
     </row>
     <row r="41" spans="1:11" ht="24" customHeight="1">
-      <c r="A41" s="55"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="19" t="str">
         <f>RUBRICA!A6</f>
         <v>3. Responde las preguntas realizadas por la comisión, cumpliendo con los estándares de calidad de la disciplina.</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D41" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>X</v>
       </c>
       <c r="E41" s="12">
@@ -2223,7 +2196,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G41" s="12" t="str">
@@ -2231,7 +2204,7 @@
         <v/>
       </c>
       <c r="H41" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I41" s="12" t="str">
@@ -2239,25 +2212,25 @@
         <v/>
       </c>
       <c r="J41" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="K41" s="12" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K41" s="12" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
     </row>
     <row r="42" spans="1:11" ht="24" customHeight="1">
-      <c r="A42" s="55"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="19" t="str">
         <f>RUBRICA!A7</f>
         <v>4. Expone el Proyecto APT, considerando el formato y el tiempo establecido para la presentación.</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D42" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>X</v>
       </c>
       <c r="E42" s="12">
@@ -2265,7 +2238,7 @@
         <v>5</v>
       </c>
       <c r="F42" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G42" s="12" t="str">
@@ -2273,7 +2246,7 @@
         <v/>
       </c>
       <c r="H42" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I42" s="12" t="str">
@@ -2281,25 +2254,25 @@
         <v/>
       </c>
       <c r="J42" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="K42" s="12" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K42" s="12" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
     </row>
     <row r="43" spans="1:11" ht="24" customHeight="1">
-      <c r="A43" s="55"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="19" t="str">
         <f>RUBRICA!A8</f>
         <v>5. Expresa sus ideas con fluidez, claridad y precisión, utilizando lenguaje técnico propio de la disciplina.</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D43" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>X</v>
       </c>
       <c r="E43" s="12">
@@ -2307,7 +2280,7 @@
         <v>5</v>
       </c>
       <c r="F43" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="G43" s="12" t="str">
@@ -2315,7 +2288,7 @@
         <v/>
       </c>
       <c r="H43" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I43" s="12" t="str">
@@ -2323,22 +2296,22 @@
         <v/>
       </c>
       <c r="J43" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="K43" s="12" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K43" s="12" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
     </row>
     <row r="44" spans="1:11" ht="24" customHeight="1">
-      <c r="A44" s="55"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="19" t="str">
         <f>RUBRICA!A9</f>
         <v>6. Entrega la documentación y evidencias requerida por la asignatura de acuerdo a la estructura y nombres solicitados, guardando todas las evidencias de avances en Git</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D44" s="12" t="str">
         <f>IF($C44=CL,"X","")</f>
@@ -2369,18 +2342,18 @@
         <v/>
       </c>
       <c r="K44" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:11" ht="24" customHeight="1">
-      <c r="A45" s="55"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="19" t="str">
         <f>RUBRICA!A10</f>
         <v xml:space="preserve">7. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. </v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D45" s="12" t="str">
         <f>IF($C45=CL,"X","")</f>
@@ -2411,14 +2384,14 @@
         <v/>
       </c>
       <c r="K45" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:11" ht="24" customHeight="1">
-      <c r="A46" s="53"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C46" s="22">
         <f>E46+G46+I46+K46</f>
@@ -2446,9 +2419,9 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="24" customHeight="1">
-      <c r="A47" s="54"/>
+      <c r="A47" s="42"/>
       <c r="B47" s="21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C47" s="14">
         <f>VLOOKUP(C46,ESCALA_IEP!A28:B228,2,FALSE)</f>
@@ -2458,61 +2431,61 @@
     <row r="48" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="49" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="50" spans="1:11" ht="24" customHeight="1">
-      <c r="A50" s="42" t="s">
-        <v>17</v>
+      <c r="A50" s="39" t="s">
+        <v>14</v>
       </c>
       <c r="B50" s="11" t="str">
         <f>B4</f>
-        <v>ESTUDIANTE 1</v>
-      </c>
-      <c r="C50" s="39" t="s">
+        <v>FELIPE FUENTES</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="46"/>
+    </row>
+    <row r="51" spans="1:11" ht="24" customHeight="1">
+      <c r="A51" s="40"/>
+      <c r="B51" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="42"/>
+      <c r="D51" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="E51" s="46"/>
+      <c r="F51" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="52"/>
-    </row>
-    <row r="51" spans="1:11" ht="24" customHeight="1">
-      <c r="A51" s="53"/>
-      <c r="B51" s="15" t="s">
+      <c r="G51" s="46"/>
+      <c r="H51" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="40" t="s">
+      <c r="I51" s="46"/>
+      <c r="J51" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="52"/>
-      <c r="F51" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="52"/>
-      <c r="H51" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="52"/>
-      <c r="J51" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="K51" s="52"/>
+      <c r="K51" s="46"/>
     </row>
     <row r="52" spans="1:11" ht="24" customHeight="1">
-      <c r="A52" s="55"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="19" t="str">
         <f>RUBRICA!A4</f>
         <v xml:space="preserve">1. Presenta el proyecto considerando la relevancia, objetivos, metodología y desarrollo, de acuerdo a los estándares de calidad de la disciplina. </v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D52" s="12" t="str">
-        <f t="shared" ref="D52:D56" si="17">IF($C52=CL,"X","")</f>
+        <f t="shared" ref="D52:D56" si="16">IF($C52=CL,"X","")</f>
         <v>X</v>
       </c>
       <c r="E52" s="12">
@@ -2520,7 +2493,7 @@
         <v>15</v>
       </c>
       <c r="F52" s="12" t="str">
-        <f t="shared" ref="F52:F56" si="18">IF($C52=L,"X","")</f>
+        <f t="shared" ref="F52:F56" si="17">IF($C52=L,"X","")</f>
         <v/>
       </c>
       <c r="G52" s="12" t="str">
@@ -2528,7 +2501,7 @@
         <v/>
       </c>
       <c r="H52" s="12" t="str">
-        <f t="shared" ref="H52:H56" si="19">IF($C52=ML,"X","")</f>
+        <f t="shared" ref="H52:H56" si="18">IF($C52=ML,"X","")</f>
         <v/>
       </c>
       <c r="I52" s="12" t="str">
@@ -2536,25 +2509,25 @@
         <v/>
       </c>
       <c r="J52" s="12" t="str">
-        <f t="shared" ref="J52:J56" si="20">IF($C52=NL,"X","")</f>
+        <f t="shared" ref="J52:J56" si="19">IF($C52=NL,"X","")</f>
         <v/>
       </c>
       <c r="K52" s="12" t="str">
-        <f t="shared" ref="K52:K58" si="21">IF($J52="X",0,"")</f>
+        <f t="shared" ref="K52:K58" si="20">IF($J52="X",0,"")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:11" ht="24" customHeight="1">
-      <c r="A53" s="55"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="19" t="str">
         <f>RUBRICA!A5</f>
         <v xml:space="preserve">2. Presenta las evidencias del Proyecto APT, dando cuenta del cumplimiento de los objetivos y de acuerdo a los estándares de la disciplina. </v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D53" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>X</v>
       </c>
       <c r="E53" s="12">
@@ -2562,7 +2535,7 @@
         <v>25</v>
       </c>
       <c r="F53" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G53" s="12" t="str">
@@ -2570,7 +2543,7 @@
         <v/>
       </c>
       <c r="H53" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I53" s="12" t="str">
@@ -2578,25 +2551,25 @@
         <v/>
       </c>
       <c r="J53" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="K53" s="12" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="K53" s="12" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
     </row>
     <row r="54" spans="1:11" ht="24" customHeight="1">
-      <c r="A54" s="55"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="19" t="str">
         <f>RUBRICA!A6</f>
         <v>3. Responde las preguntas realizadas por la comisión, cumpliendo con los estándares de calidad de la disciplina.</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D54" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>X</v>
       </c>
       <c r="E54" s="12">
@@ -2604,7 +2577,7 @@
         <v>20</v>
       </c>
       <c r="F54" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G54" s="12" t="str">
@@ -2612,7 +2585,7 @@
         <v/>
       </c>
       <c r="H54" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I54" s="12" t="str">
@@ -2620,25 +2593,25 @@
         <v/>
       </c>
       <c r="J54" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="K54" s="12" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="K54" s="12" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
     </row>
     <row r="55" spans="1:11" ht="24" customHeight="1">
-      <c r="A55" s="55"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="19" t="str">
         <f>RUBRICA!A7</f>
         <v>4. Expone el Proyecto APT, considerando el formato y el tiempo establecido para la presentación.</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D55" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>X</v>
       </c>
       <c r="E55" s="12">
@@ -2646,7 +2619,7 @@
         <v>5</v>
       </c>
       <c r="F55" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G55" s="12" t="str">
@@ -2654,7 +2627,7 @@
         <v/>
       </c>
       <c r="H55" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I55" s="12" t="str">
@@ -2662,25 +2635,25 @@
         <v/>
       </c>
       <c r="J55" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="K55" s="12" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="K55" s="12" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
     </row>
     <row r="56" spans="1:11" ht="24" customHeight="1">
-      <c r="A56" s="55"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="19" t="str">
         <f>RUBRICA!A8</f>
         <v>5. Expresa sus ideas con fluidez, claridad y precisión, utilizando lenguaje técnico propio de la disciplina.</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D56" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>X</v>
       </c>
       <c r="E56" s="12">
@@ -2688,7 +2661,7 @@
         <v>5</v>
       </c>
       <c r="F56" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G56" s="12" t="str">
@@ -2696,7 +2669,7 @@
         <v/>
       </c>
       <c r="H56" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I56" s="12" t="str">
@@ -2704,22 +2677,22 @@
         <v/>
       </c>
       <c r="J56" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="K56" s="12" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="K56" s="12" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
     </row>
     <row r="57" spans="1:11" ht="24" customHeight="1">
-      <c r="A57" s="55"/>
+      <c r="A57" s="41"/>
       <c r="B57" s="19" t="str">
         <f>RUBRICA!A9</f>
         <v>6. Entrega la documentación y evidencias requerida por la asignatura de acuerdo a la estructura y nombres solicitados, guardando todas las evidencias de avances en Git</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D57" s="12" t="str">
         <f>IF($C57=CL,"X","")</f>
@@ -2750,18 +2723,18 @@
         <v/>
       </c>
       <c r="K57" s="12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:11" ht="24" customHeight="1">
-      <c r="A58" s="55"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="19" t="str">
         <f>RUBRICA!A10</f>
         <v xml:space="preserve">7. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. </v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D58" s="12" t="str">
         <f>IF($C58=CL,"X","")</f>
@@ -2792,14 +2765,14 @@
         <v/>
       </c>
       <c r="K58" s="12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:11" ht="24" customHeight="1">
-      <c r="A59" s="53"/>
+      <c r="A59" s="40"/>
       <c r="B59" s="18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C59" s="22">
         <f>E59+G59+I59+K59</f>
@@ -2827,9 +2800,9 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="24" customHeight="1">
-      <c r="A60" s="54"/>
+      <c r="A60" s="42"/>
       <c r="B60" s="21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C60" s="14">
         <f>VLOOKUP(C59,ESCALA_IEP!A41:B241,2,FALSE)</f>
@@ -2839,61 +2812,61 @@
     <row r="61" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="62" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="63" spans="1:11" ht="24" customHeight="1">
-      <c r="A63" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="11" t="str">
+      <c r="A63" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="11">
         <f>B5</f>
-        <v>ESTUDIANTE 2</v>
-      </c>
-      <c r="C63" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="46"/>
+    </row>
+    <row r="64" spans="1:11" ht="24" customHeight="1">
+      <c r="A64" s="40"/>
+      <c r="B64" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="42"/>
+      <c r="D64" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="40" t="s">
+      <c r="E64" s="46"/>
+      <c r="F64" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="51"/>
-      <c r="J63" s="51"/>
-      <c r="K63" s="52"/>
-    </row>
-    <row r="64" spans="1:11" ht="24" customHeight="1">
-      <c r="A64" s="53"/>
-      <c r="B64" s="15" t="s">
+      <c r="G64" s="46"/>
+      <c r="H64" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="54"/>
-      <c r="D64" s="40" t="s">
+      <c r="I64" s="46"/>
+      <c r="J64" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="52"/>
-      <c r="F64" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="52"/>
-      <c r="H64" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="52"/>
-      <c r="J64" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="K64" s="52"/>
+      <c r="K64" s="46"/>
     </row>
     <row r="65" spans="1:11" ht="24" customHeight="1">
-      <c r="A65" s="55"/>
+      <c r="A65" s="41"/>
       <c r="B65" s="19" t="str">
         <f>RUBRICA!A4</f>
         <v xml:space="preserve">1. Presenta el proyecto considerando la relevancia, objetivos, metodología y desarrollo, de acuerdo a los estándares de calidad de la disciplina. </v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D65" s="12" t="str">
-        <f t="shared" ref="D65:D69" si="22">IF($C65=CL,"X","")</f>
+        <f t="shared" ref="D65:D69" si="21">IF($C65=CL,"X","")</f>
         <v>X</v>
       </c>
       <c r="E65" s="12">
@@ -2901,7 +2874,7 @@
         <v>15</v>
       </c>
       <c r="F65" s="12" t="str">
-        <f t="shared" ref="F65:F69" si="23">IF($C65=L,"X","")</f>
+        <f t="shared" ref="F65:F69" si="22">IF($C65=L,"X","")</f>
         <v/>
       </c>
       <c r="G65" s="12" t="str">
@@ -2909,7 +2882,7 @@
         <v/>
       </c>
       <c r="H65" s="12" t="str">
-        <f t="shared" ref="H65:H69" si="24">IF($C65=ML,"X","")</f>
+        <f t="shared" ref="H65:H69" si="23">IF($C65=ML,"X","")</f>
         <v/>
       </c>
       <c r="I65" s="12" t="str">
@@ -2917,25 +2890,25 @@
         <v/>
       </c>
       <c r="J65" s="12" t="str">
-        <f t="shared" ref="J65:J69" si="25">IF($C65=NL,"X","")</f>
+        <f t="shared" ref="J65:J69" si="24">IF($C65=NL,"X","")</f>
         <v/>
       </c>
       <c r="K65" s="12" t="str">
-        <f t="shared" ref="K65:K71" si="26">IF($J65="X",0,"")</f>
+        <f t="shared" ref="K65:K71" si="25">IF($J65="X",0,"")</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:11" ht="24" customHeight="1">
-      <c r="A66" s="55"/>
+      <c r="A66" s="41"/>
       <c r="B66" s="19" t="str">
         <f>RUBRICA!A5</f>
         <v xml:space="preserve">2. Presenta las evidencias del Proyecto APT, dando cuenta del cumplimiento de los objetivos y de acuerdo a los estándares de la disciplina. </v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D66" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>X</v>
       </c>
       <c r="E66" s="12">
@@ -2943,7 +2916,7 @@
         <v>25</v>
       </c>
       <c r="F66" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G66" s="12" t="str">
@@ -2951,7 +2924,7 @@
         <v/>
       </c>
       <c r="H66" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I66" s="12" t="str">
@@ -2959,25 +2932,25 @@
         <v/>
       </c>
       <c r="J66" s="12" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="K66" s="12" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="K66" s="12" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
     </row>
     <row r="67" spans="1:11" ht="24" customHeight="1">
-      <c r="A67" s="55"/>
+      <c r="A67" s="41"/>
       <c r="B67" s="19" t="str">
         <f>RUBRICA!A6</f>
         <v>3. Responde las preguntas realizadas por la comisión, cumpliendo con los estándares de calidad de la disciplina.</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D67" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>X</v>
       </c>
       <c r="E67" s="12">
@@ -2985,7 +2958,7 @@
         <v>20</v>
       </c>
       <c r="F67" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G67" s="12" t="str">
@@ -2993,7 +2966,7 @@
         <v/>
       </c>
       <c r="H67" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I67" s="12" t="str">
@@ -3001,25 +2974,25 @@
         <v/>
       </c>
       <c r="J67" s="12" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="K67" s="12" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="K67" s="12" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
     </row>
     <row r="68" spans="1:11" ht="24" customHeight="1">
-      <c r="A68" s="55"/>
+      <c r="A68" s="41"/>
       <c r="B68" s="19" t="str">
         <f>RUBRICA!A7</f>
         <v>4. Expone el Proyecto APT, considerando el formato y el tiempo establecido para la presentación.</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D68" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>X</v>
       </c>
       <c r="E68" s="12">
@@ -3027,7 +3000,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G68" s="12" t="str">
@@ -3035,7 +3008,7 @@
         <v/>
       </c>
       <c r="H68" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I68" s="12" t="str">
@@ -3043,25 +3016,25 @@
         <v/>
       </c>
       <c r="J68" s="12" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="K68" s="12" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="K68" s="12" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
     </row>
     <row r="69" spans="1:11" ht="24" customHeight="1">
-      <c r="A69" s="55"/>
+      <c r="A69" s="41"/>
       <c r="B69" s="19" t="str">
         <f>RUBRICA!A8</f>
         <v>5. Expresa sus ideas con fluidez, claridad y precisión, utilizando lenguaje técnico propio de la disciplina.</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D69" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>X</v>
       </c>
       <c r="E69" s="12">
@@ -3069,7 +3042,7 @@
         <v>5</v>
       </c>
       <c r="F69" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G69" s="12" t="str">
@@ -3077,7 +3050,7 @@
         <v/>
       </c>
       <c r="H69" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I69" s="12" t="str">
@@ -3085,22 +3058,22 @@
         <v/>
       </c>
       <c r="J69" s="12" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="K69" s="12" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="K69" s="12" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
     </row>
     <row r="70" spans="1:11" ht="24" customHeight="1">
-      <c r="A70" s="55"/>
+      <c r="A70" s="41"/>
       <c r="B70" s="19" t="str">
         <f>RUBRICA!A9</f>
         <v>6. Entrega la documentación y evidencias requerida por la asignatura de acuerdo a la estructura y nombres solicitados, guardando todas las evidencias de avances en Git</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D70" s="12" t="str">
         <f>IF($C70=CL,"X","")</f>
@@ -3131,18 +3104,18 @@
         <v/>
       </c>
       <c r="K70" s="12" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:11" ht="24" customHeight="1">
-      <c r="A71" s="55"/>
+      <c r="A71" s="41"/>
       <c r="B71" s="19" t="str">
         <f>RUBRICA!A10</f>
         <v xml:space="preserve">7. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. </v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D71" s="12" t="str">
         <f>IF($C71=CL,"X","")</f>
@@ -3173,14 +3146,14 @@
         <v/>
       </c>
       <c r="K71" s="12" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:11" ht="24" customHeight="1">
-      <c r="A72" s="53"/>
+      <c r="A72" s="40"/>
       <c r="B72" s="18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C72" s="22">
         <f>E72+G72+I72+K72</f>
@@ -3208,9 +3181,9 @@
       </c>
     </row>
     <row r="73" spans="1:11" ht="24" customHeight="1">
-      <c r="A73" s="54"/>
+      <c r="A73" s="42"/>
       <c r="B73" s="21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C73" s="14">
         <f>VLOOKUP(C72,ESCALA_IEP!A54:B254,2,FALSE)</f>
@@ -3220,61 +3193,61 @@
     <row r="74" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="75" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="76" spans="1:11" ht="24" customHeight="1">
-      <c r="A76" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B76" s="11" t="str">
+      <c r="A76" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="11">
         <f>B6</f>
-        <v>ESTUDIANTE 3</v>
-      </c>
-      <c r="C76" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="45"/>
+      <c r="K76" s="46"/>
+    </row>
+    <row r="77" spans="1:11" ht="24" customHeight="1">
+      <c r="A77" s="40"/>
+      <c r="B77" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="42"/>
+      <c r="D77" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="40" t="s">
+      <c r="E77" s="46"/>
+      <c r="F77" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="51"/>
-      <c r="J76" s="51"/>
-      <c r="K76" s="52"/>
-    </row>
-    <row r="77" spans="1:11" ht="24" customHeight="1">
-      <c r="A77" s="53"/>
-      <c r="B77" s="15" t="s">
+      <c r="G77" s="46"/>
+      <c r="H77" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="54"/>
-      <c r="D77" s="40" t="s">
+      <c r="I77" s="46"/>
+      <c r="J77" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E77" s="52"/>
-      <c r="F77" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="52"/>
-      <c r="H77" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="52"/>
-      <c r="J77" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="K77" s="52"/>
+      <c r="K77" s="46"/>
     </row>
     <row r="78" spans="1:11" ht="24" customHeight="1">
-      <c r="A78" s="55"/>
+      <c r="A78" s="41"/>
       <c r="B78" s="19" t="str">
         <f>RUBRICA!A4</f>
         <v xml:space="preserve">1. Presenta el proyecto considerando la relevancia, objetivos, metodología y desarrollo, de acuerdo a los estándares de calidad de la disciplina. </v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D78" s="12" t="str">
-        <f t="shared" ref="D78:D82" si="27">IF($C78=CL,"X","")</f>
+        <f t="shared" ref="D78:D82" si="26">IF($C78=CL,"X","")</f>
         <v>X</v>
       </c>
       <c r="E78" s="12">
@@ -3282,7 +3255,7 @@
         <v>15</v>
       </c>
       <c r="F78" s="12" t="str">
-        <f t="shared" ref="F78:F82" si="28">IF($C78=L,"X","")</f>
+        <f t="shared" ref="F78:F82" si="27">IF($C78=L,"X","")</f>
         <v/>
       </c>
       <c r="G78" s="12" t="str">
@@ -3290,7 +3263,7 @@
         <v/>
       </c>
       <c r="H78" s="12" t="str">
-        <f t="shared" ref="H78:H82" si="29">IF($C78=ML,"X","")</f>
+        <f t="shared" ref="H78:H82" si="28">IF($C78=ML,"X","")</f>
         <v/>
       </c>
       <c r="I78" s="12" t="str">
@@ -3298,25 +3271,25 @@
         <v/>
       </c>
       <c r="J78" s="12" t="str">
-        <f t="shared" ref="J78:J82" si="30">IF($C78=NL,"X","")</f>
+        <f t="shared" ref="J78:J82" si="29">IF($C78=NL,"X","")</f>
         <v/>
       </c>
       <c r="K78" s="12" t="str">
-        <f t="shared" ref="K78:K84" si="31">IF($J78="X",0,"")</f>
+        <f t="shared" ref="K78:K84" si="30">IF($J78="X",0,"")</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:11" ht="24" customHeight="1">
-      <c r="A79" s="55"/>
+      <c r="A79" s="41"/>
       <c r="B79" s="19" t="str">
         <f>RUBRICA!A5</f>
         <v xml:space="preserve">2. Presenta las evidencias del Proyecto APT, dando cuenta del cumplimiento de los objetivos y de acuerdo a los estándares de la disciplina. </v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D79" s="12" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>X</v>
       </c>
       <c r="E79" s="12">
@@ -3324,7 +3297,7 @@
         <v>25</v>
       </c>
       <c r="F79" s="12" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="G79" s="12" t="str">
@@ -3332,7 +3305,7 @@
         <v/>
       </c>
       <c r="H79" s="12" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I79" s="12" t="str">
@@ -3340,25 +3313,25 @@
         <v/>
       </c>
       <c r="J79" s="12" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="K79" s="12" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="K79" s="12" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
     </row>
     <row r="80" spans="1:11" ht="24" customHeight="1">
-      <c r="A80" s="55"/>
+      <c r="A80" s="41"/>
       <c r="B80" s="19" t="str">
         <f>RUBRICA!A6</f>
         <v>3. Responde las preguntas realizadas por la comisión, cumpliendo con los estándares de calidad de la disciplina.</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D80" s="12" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>X</v>
       </c>
       <c r="E80" s="12">
@@ -3366,7 +3339,7 @@
         <v>20</v>
       </c>
       <c r="F80" s="12" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="G80" s="12" t="str">
@@ -3374,7 +3347,7 @@
         <v/>
       </c>
       <c r="H80" s="12" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I80" s="12" t="str">
@@ -3382,25 +3355,25 @@
         <v/>
       </c>
       <c r="J80" s="12" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="K80" s="12" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="K80" s="12" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
     </row>
     <row r="81" spans="1:11" ht="24" customHeight="1">
-      <c r="A81" s="55"/>
+      <c r="A81" s="41"/>
       <c r="B81" s="19" t="str">
         <f>RUBRICA!A7</f>
         <v>4. Expone el Proyecto APT, considerando el formato y el tiempo establecido para la presentación.</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D81" s="12" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>X</v>
       </c>
       <c r="E81" s="12">
@@ -3408,7 +3381,7 @@
         <v>5</v>
       </c>
       <c r="F81" s="12" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="G81" s="12" t="str">
@@ -3416,7 +3389,7 @@
         <v/>
       </c>
       <c r="H81" s="12" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I81" s="12" t="str">
@@ -3424,25 +3397,25 @@
         <v/>
       </c>
       <c r="J81" s="12" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="K81" s="12" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="K81" s="12" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
     </row>
     <row r="82" spans="1:11" ht="24" customHeight="1">
-      <c r="A82" s="55"/>
+      <c r="A82" s="41"/>
       <c r="B82" s="19" t="str">
         <f>RUBRICA!A8</f>
         <v>5. Expresa sus ideas con fluidez, claridad y precisión, utilizando lenguaje técnico propio de la disciplina.</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D82" s="12" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>X</v>
       </c>
       <c r="E82" s="12">
@@ -3450,7 +3423,7 @@
         <v>5</v>
       </c>
       <c r="F82" s="12" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="G82" s="12" t="str">
@@ -3458,7 +3431,7 @@
         <v/>
       </c>
       <c r="H82" s="12" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I82" s="12" t="str">
@@ -3466,22 +3439,22 @@
         <v/>
       </c>
       <c r="J82" s="12" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="K82" s="12" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="K82" s="12" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
     </row>
     <row r="83" spans="1:11" ht="24" customHeight="1">
-      <c r="A83" s="55"/>
+      <c r="A83" s="41"/>
       <c r="B83" s="19" t="str">
         <f>RUBRICA!A9</f>
         <v>6. Entrega la documentación y evidencias requerida por la asignatura de acuerdo a la estructura y nombres solicitados, guardando todas las evidencias de avances en Git</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D83" s="12" t="str">
         <f>IF($C83=CL,"X","")</f>
@@ -3512,18 +3485,18 @@
         <v/>
       </c>
       <c r="K83" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:11" ht="24" customHeight="1">
-      <c r="A84" s="55"/>
+      <c r="A84" s="41"/>
       <c r="B84" s="19" t="str">
         <f>RUBRICA!A10</f>
         <v xml:space="preserve">7. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. </v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D84" s="12" t="str">
         <f>IF($C84=CL,"X","")</f>
@@ -3554,14 +3527,14 @@
         <v/>
       </c>
       <c r="K84" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:11" ht="24" customHeight="1">
-      <c r="A85" s="53"/>
+      <c r="A85" s="40"/>
       <c r="B85" s="18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C85" s="22">
         <f>E85+G85+I85+K85</f>
@@ -3589,9 +3562,9 @@
       </c>
     </row>
     <row r="86" spans="1:11" ht="24" customHeight="1">
-      <c r="A86" s="54"/>
+      <c r="A86" s="42"/>
       <c r="B86" s="21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C86" s="14">
         <f>VLOOKUP(C85,ESCALA_IEP!A67:B267,2,FALSE)</f>
@@ -4311,32 +4284,6 @@
     <row r="797" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A76:A86"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:K76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="A63:A73"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:K63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A50:A60"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
     <mergeCell ref="A11:A21"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="D37:K37"/>
@@ -4353,6 +4300,32 @@
     <mergeCell ref="A37:A47"/>
     <mergeCell ref="A24:A34"/>
     <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A50:A60"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A63:A73"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:K63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="A76:A86"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:K76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C6">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
@@ -4393,7 +4366,7 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
@@ -4403,63 +4376,63 @@
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="50"/>
+      <c r="B2" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="C2" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="43" t="s">
+      <c r="D2" s="25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="44"/>
-      <c r="B2" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>25</v>
-      </c>
       <c r="E2" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="44"/>
+        <v>11</v>
+      </c>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="44"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="27">
         <v>0.3</v>
       </c>
       <c r="E3" s="27">
         <v>0</v>
       </c>
-      <c r="F3" s="44"/>
-    </row>
-    <row r="4" spans="1:6" ht="110.45">
+      <c r="F3" s="50"/>
+    </row>
+    <row r="4" spans="1:6" ht="102">
       <c r="A4" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="E4" s="23" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>30</v>
       </c>
       <c r="F4" s="28">
         <v>15</v>
@@ -4467,19 +4440,19 @@
     </row>
     <row r="5" spans="1:6" ht="136.9" customHeight="1">
       <c r="A5" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="E5" s="23" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>35</v>
       </c>
       <c r="F5" s="28">
         <v>25</v>
@@ -4487,79 +4460,79 @@
     </row>
     <row r="6" spans="1:6" ht="87" customHeight="1">
       <c r="A6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="E6" s="23" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>40</v>
       </c>
       <c r="F6" s="28">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="96.6">
+    <row r="7" spans="1:6" ht="89.25">
       <c r="A7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="E7" s="23" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>45</v>
       </c>
       <c r="F7" s="28">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="96.6">
+    <row r="8" spans="1:6" ht="89.25">
       <c r="A8" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="E8" s="23" t="s">
         <v>47</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="F8" s="28">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="96.6">
+    <row r="9" spans="1:6" ht="89.25">
       <c r="A9" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="E9" s="23" t="s">
         <v>52</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>55</v>
       </c>
       <c r="F9" s="24">
         <v>20</v>
@@ -4567,19 +4540,19 @@
     </row>
     <row r="10" spans="1:6" ht="126" customHeight="1">
       <c r="A10" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="E10" s="23" t="s">
         <v>57</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>60</v>
       </c>
       <c r="F10" s="24">
         <v>10</v>
@@ -4605,20 +4578,20 @@
       <selection sqref="A1:B202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4626,7 +4599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.45">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -4634,7 +4607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.45">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4642,7 +4615,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.45">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>1.5</v>
       </c>
@@ -4650,7 +4623,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.45">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4658,7 +4631,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.45">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>2.5</v>
       </c>
@@ -4666,7 +4639,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.45">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4674,7 +4647,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.45">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>3.5</v>
       </c>
@@ -4682,7 +4655,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.45">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -4690,7 +4663,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.45">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>4.5</v>
       </c>
@@ -4698,7 +4671,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.45">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -4706,7 +4679,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.45">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>5.5</v>
       </c>
@@ -4714,7 +4687,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.45">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -4722,7 +4695,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.45">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>6.5</v>
       </c>
@@ -4730,7 +4703,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.45">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>7</v>
       </c>
@@ -4738,7 +4711,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.45">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>7.5</v>
       </c>
@@ -4746,7 +4719,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.45">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>8</v>
       </c>
@@ -4754,7 +4727,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.45">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>8.5</v>
       </c>
@@ -4762,7 +4735,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.45">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>9</v>
       </c>
@@ -7036,20 +7009,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.45">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7057,7 +7030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.45">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7065,7 +7038,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.45">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7073,7 +7046,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.45">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7081,7 +7054,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.45">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7089,7 +7062,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.45">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7097,7 +7070,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.45">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7105,7 +7078,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.45">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -7113,7 +7086,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.45">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -7121,7 +7094,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.45">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -7129,7 +7102,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.45">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -7137,7 +7110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.45">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -7145,7 +7118,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.45">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -7153,7 +7126,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.45">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -7161,7 +7134,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.45">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -7169,7 +7142,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.45">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -7177,7 +7150,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.45">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -7185,7 +7158,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.45">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -7193,7 +7166,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.45">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8433,20 +8406,20 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8454,7 +8427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.45">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -8462,7 +8435,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.45">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -8470,7 +8443,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.45">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>1.5</v>
       </c>
@@ -8478,7 +8451,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.45">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -8486,7 +8459,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.45">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>2.5</v>
       </c>
@@ -8494,7 +8467,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.45">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -8502,7 +8475,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.45">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>3.5</v>
       </c>
@@ -8510,7 +8483,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.45">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -8518,7 +8491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.45">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>4.5</v>
       </c>
@@ -8526,7 +8499,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.45">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -8534,7 +8507,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.45">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>5.5</v>
       </c>
@@ -8542,7 +8515,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.45">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -8550,7 +8523,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.45">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>6.5</v>
       </c>
@@ -8558,7 +8531,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.45">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>7</v>
       </c>
@@ -8566,7 +8539,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.45">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>7.5</v>
       </c>
@@ -8574,7 +8547,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.45">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>8</v>
       </c>
@@ -8582,7 +8555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.45">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>8.5</v>
       </c>
@@ -8590,7 +8563,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.45">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>9</v>
       </c>
@@ -9750,40 +9723,40 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="25" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45">
-      <c r="A1" s="50" t="s">
-        <v>63</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="56" t="s">
+        <v>60</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="43.9" thickBot="1">
-      <c r="A2" s="56"/>
+    <row r="2" spans="1:5" ht="45.75" thickBot="1">
+      <c r="A2" s="57"/>
       <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="29.45" thickBot="1">
+    </row>
+    <row r="3" spans="1:5" ht="30.75" thickBot="1">
       <c r="A3" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B3" s="10">
         <v>4</v>
@@ -9798,14 +9771,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" thickBot="1">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" thickBot="1">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
